--- a/results/08-2024/beta/inputs-08-2024.xlsx
+++ b/results/08-2024/beta/inputs-08-2024.xlsx
@@ -22589,7 +22589,7 @@
         <v>383.6</v>
       </c>
       <c r="R212" t="n">
-        <v>11.312146474264</v>
+        <v>4.73526697056517</v>
       </c>
       <c r="S212" t="n">
         <v>146.2</v>
@@ -22690,7 +22690,7 @@
         <v>373.6</v>
       </c>
       <c r="R213" t="n">
-        <v>11.4165277279474</v>
+        <v>7.97281572565635</v>
       </c>
       <c r="S213" t="n">
         <v>160.5</v>
@@ -22791,7 +22791,7 @@
         <v>388.6</v>
       </c>
       <c r="R214" t="n">
-        <v>35.7554311524284</v>
+        <v>30.3389728173201</v>
       </c>
       <c r="S214" t="n">
         <v>172.5</v>
@@ -22892,7 +22892,7 @@
         <v>403.3</v>
       </c>
       <c r="R215" t="n">
-        <v>58.1101522494854</v>
+        <v>46.1940167002442</v>
       </c>
       <c r="S215" t="n">
         <v>150.7</v>
@@ -22993,7 +22993,7 @@
         <v>418</v>
       </c>
       <c r="R216" t="n">
-        <v>83.1934054245611</v>
+        <v>61.9872136581314</v>
       </c>
       <c r="S216" t="n">
         <v>148.7</v>
@@ -23094,7 +23094,7 @@
         <v>429.4</v>
       </c>
       <c r="R217" t="n">
-        <v>106.91859551891</v>
+        <v>68.2429483606458</v>
       </c>
       <c r="S217" t="n">
         <v>165.7</v>
@@ -23195,7 +23195,7 @@
         <v>453.8</v>
       </c>
       <c r="R218" t="n">
-        <v>123.691799143077</v>
+        <v>77.9301419713709</v>
       </c>
       <c r="S218" t="n">
         <v>169.1</v>
@@ -23254,28 +23254,28 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>0.00478363441931084</v>
+        <v>0.00719994122496947</v>
       </c>
       <c r="E219" t="n">
-        <v>0.00487319586827595</v>
+        <v>0.0049664627748458</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00250601824077523</v>
+        <v>0.000911279360281902</v>
       </c>
       <c r="G219" t="n">
-        <v>0.00441408791004538</v>
+        <v>0.00417402347984996</v>
       </c>
       <c r="H219" t="n">
-        <v>0.00649663727517136</v>
+        <v>0.00623513741000736</v>
       </c>
       <c r="I219" t="n">
         <v>0.00514477147642989</v>
       </c>
       <c r="J219" t="n">
-        <v>28629.2</v>
+        <v>28652.3</v>
       </c>
       <c r="K219" t="n">
-        <v>1863.8</v>
+        <v>1865.5</v>
       </c>
       <c r="L219" t="n">
         <v>433.054109</v>
@@ -23284,28 +23284,28 @@
         <v>77.7072857142857</v>
       </c>
       <c r="N219" t="n">
-        <v>3137.4</v>
+        <v>3134.6</v>
       </c>
       <c r="O219" t="n">
-        <v>4439</v>
+        <v>4433.4</v>
       </c>
       <c r="P219" t="n">
-        <v>2328.3</v>
+        <v>2334.8</v>
       </c>
       <c r="Q219" t="n">
-        <v>464.974716755204</v>
+        <v>470.1</v>
       </c>
       <c r="R219" t="n">
-        <v>127.724377848508</v>
+        <v>85.479458631542</v>
       </c>
       <c r="S219" t="n">
-        <v>172.78949768486</v>
+        <v>162.7</v>
       </c>
       <c r="T219" t="n">
-        <v>2070.499</v>
+        <v>2069.399</v>
       </c>
       <c r="U219" t="n">
-        <v>180.3</v>
+        <v>180.6</v>
       </c>
       <c r="V219" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="Y219" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Z219" t="n">
         <v>94</v>
@@ -23373,10 +23373,10 @@
         <v>0.0051977939134229</v>
       </c>
       <c r="J220" t="n">
-        <v>28939.2826519183</v>
+        <v>28962.6328478462</v>
       </c>
       <c r="K220" t="n">
-        <v>1862.79273174517</v>
+        <v>1864.49181300065</v>
       </c>
       <c r="L220" t="n">
         <v>437.682352782907</v>
@@ -23385,25 +23385,25 @@
         <v>77.7072857142857</v>
       </c>
       <c r="N220" t="n">
-        <v>3166.71347588412</v>
+        <v>3163.88731481685</v>
       </c>
       <c r="O220" t="n">
-        <v>4488.43810791123</v>
+        <v>4489.77138838705</v>
       </c>
       <c r="P220" t="n">
-        <v>2365.66523074806</v>
+        <v>2370.49346913627</v>
       </c>
       <c r="Q220" t="n">
-        <v>476.424608245003</v>
+        <v>481.67610036717</v>
       </c>
       <c r="R220" t="n">
-        <v>131.46353647701</v>
+        <v>79.8132565117648</v>
       </c>
       <c r="S220" t="n">
-        <v>175.488406763014</v>
+        <v>164.479053476849</v>
       </c>
       <c r="T220" t="n">
-        <v>2077.43233333333</v>
+        <v>2076.33233333333</v>
       </c>
       <c r="U220" t="n">
         <v>202.804265449591</v>
@@ -23439,10 +23439,10 @@
         <v>0</v>
       </c>
       <c r="AF220" t="n">
-        <v>1632.88132683418</v>
+        <v>1630.23785595267</v>
       </c>
       <c r="AG220" t="n">
-        <v>322.260664845667</v>
+        <v>320.904135727177</v>
       </c>
     </row>
     <row r="221">
@@ -23474,10 +23474,10 @@
         <v>0.00524986184574083</v>
       </c>
       <c r="J221" t="n">
-        <v>29226.5886141982</v>
+        <v>29250.1706282604</v>
       </c>
       <c r="K221" t="n">
-        <v>1881.18376071914</v>
+        <v>1882.89961670864</v>
       </c>
       <c r="L221" t="n">
         <v>442.603153049303</v>
@@ -23486,25 +23486,25 @@
         <v>79.3012857142857</v>
       </c>
       <c r="N221" t="n">
-        <v>3195.65392542925</v>
+        <v>3192.8019362053</v>
       </c>
       <c r="O221" t="n">
-        <v>4537.15803906129</v>
+        <v>4538.54697516584</v>
       </c>
       <c r="P221" t="n">
-        <v>2389.58107566087</v>
+        <v>2394.47372969455</v>
       </c>
       <c r="Q221" t="n">
-        <v>485.992461156107</v>
+        <v>491.349416982958</v>
       </c>
       <c r="R221" t="n">
-        <v>135.101757621022</v>
+        <v>71.2739115472825</v>
       </c>
       <c r="S221" t="n">
-        <v>176.811168794724</v>
+        <v>165.718831368529</v>
       </c>
       <c r="T221" t="n">
-        <v>2085.89366666667</v>
+        <v>2084.79366666667</v>
       </c>
       <c r="U221" t="n">
         <v>206.137661446175</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="AF221" t="n">
-        <v>1648.41368264403</v>
+        <v>1645.75843582058</v>
       </c>
       <c r="AG221" t="n">
-        <v>323.696248231545</v>
+        <v>322.333676145739</v>
       </c>
     </row>
     <row r="222">
@@ -23575,10 +23575,10 @@
         <v>0.00530534068053212</v>
       </c>
       <c r="J222" t="n">
-        <v>29526.3817966746</v>
+        <v>29550.2057044158</v>
       </c>
       <c r="K222" t="n">
-        <v>1903.37626636961</v>
+        <v>1905.11236447715</v>
       </c>
       <c r="L222" t="n">
         <v>425.943674590989</v>
@@ -23587,25 +23587,25 @@
         <v>79.3012857142857</v>
       </c>
       <c r="N222" t="n">
-        <v>3223.56759423466</v>
+        <v>3220.69069321347</v>
       </c>
       <c r="O222" t="n">
-        <v>4610.85968628637</v>
+        <v>4612.42707132445</v>
       </c>
       <c r="P222" t="n">
-        <v>2414.22849555631</v>
+        <v>2419.18196862347</v>
       </c>
       <c r="Q222" t="n">
-        <v>495.752461592221</v>
+        <v>501.21699911094</v>
       </c>
       <c r="R222" t="n">
-        <v>138.718437259199</v>
+        <v>74.0562477423516</v>
       </c>
       <c r="S222" t="n">
-        <v>178.430514241616</v>
+        <v>167.236586365966</v>
       </c>
       <c r="T222" t="n">
-        <v>2127.619844211</v>
+        <v>2126.528667586</v>
       </c>
       <c r="U222" t="n">
         <v>209.525846866667</v>
@@ -23641,10 +23641,10 @@
         <v>0</v>
       </c>
       <c r="AF222" t="n">
-        <v>1664.11988720118</v>
+        <v>1661.45281197718</v>
       </c>
       <c r="AG222" t="n">
-        <v>325.138226749943</v>
+        <v>323.769584777049</v>
       </c>
     </row>
     <row r="223">
@@ -23676,10 +23676,10 @@
         <v>0.0053207417791068</v>
       </c>
       <c r="J223" t="n">
-        <v>29833.4675157458</v>
+        <v>29857.5392012841</v>
       </c>
       <c r="K223" t="n">
-        <v>1926.45046033837</v>
+        <v>1928.20760476512</v>
       </c>
       <c r="L223" t="n">
         <v>421.4434595</v>
@@ -23688,25 +23688,25 @@
         <v>75.2292857142857</v>
       </c>
       <c r="N223" t="n">
-        <v>3251.6151609097</v>
+        <v>3248.71322859296</v>
       </c>
       <c r="O223" t="n">
-        <v>4642.55171794178</v>
+        <v>4644.08648874456</v>
       </c>
       <c r="P223" t="n">
-        <v>2438.81450200309</v>
+        <v>2443.82798772216</v>
       </c>
       <c r="Q223" t="n">
-        <v>505.708468378488</v>
+        <v>511.282748110983</v>
       </c>
       <c r="R223" t="n">
-        <v>142.305433390168</v>
+        <v>88.4868021619358</v>
       </c>
       <c r="S223" t="n">
-        <v>180.043928020205</v>
+        <v>168.748781821288</v>
       </c>
       <c r="T223" t="n">
-        <v>2134.55317754433</v>
+        <v>2133.46200091933</v>
       </c>
       <c r="U223" t="n">
         <v>212.969722258429</v>
@@ -23742,10 +23742,10 @@
         <v>0</v>
       </c>
       <c r="AF223" t="n">
-        <v>1680.00204124785</v>
+        <v>1677.32308493101</v>
       </c>
       <c r="AG223" t="n">
-        <v>326.586628889433</v>
+        <v>325.21188998976</v>
       </c>
     </row>
     <row r="224">
@@ -23777,10 +23777,10 @@
         <v>0.00534438472662901</v>
       </c>
       <c r="J224" t="n">
-        <v>30134.5593691226</v>
+        <v>30158.8739961966</v>
       </c>
       <c r="K224" t="n">
-        <v>1950.10624108514</v>
+        <v>1951.88496230514</v>
       </c>
       <c r="L224" t="n">
         <v>424.146511694223</v>
@@ -23789,25 +23789,25 @@
         <v>75.2292857142857</v>
       </c>
       <c r="N224" t="n">
-        <v>3278.64667947144</v>
+        <v>3275.72062264014</v>
       </c>
       <c r="O224" t="n">
-        <v>4674.48863793118</v>
+        <v>4675.99028377789</v>
       </c>
       <c r="P224" t="n">
-        <v>2462.44011672197</v>
+        <v>2467.51223324932</v>
       </c>
       <c r="Q224" t="n">
-        <v>515.864417835356</v>
+        <v>521.55064369247</v>
       </c>
       <c r="R224" t="n">
-        <v>145.840320490731</v>
+        <v>103.161764741351</v>
       </c>
       <c r="S224" t="n">
-        <v>181.070106636733</v>
+        <v>169.71058260721</v>
       </c>
       <c r="T224" t="n">
-        <v>2141.48651087767</v>
+        <v>2140.39533425267</v>
       </c>
       <c r="U224" t="n">
         <v>216.470202970687</v>
@@ -23843,10 +23843,10 @@
         <v>0</v>
       </c>
       <c r="AF224" t="n">
-        <v>1696.06227169245</v>
+        <v>1693.37138135572</v>
       </c>
       <c r="AG224" t="n">
-        <v>328.041483265495</v>
+        <v>326.660620278896</v>
       </c>
     </row>
     <row r="225">
@@ -23878,10 +23878,10 @@
         <v>0.00535891413284784</v>
       </c>
       <c r="J225" t="n">
-        <v>30420.2669672174</v>
+        <v>30444.8121227559</v>
       </c>
       <c r="K225" t="n">
-        <v>1964.03127090479</v>
+        <v>1965.82269335384</v>
       </c>
       <c r="L225" t="n">
         <v>422.990499243275</v>
@@ -23890,25 +23890,25 @@
         <v>75.2292857142857</v>
       </c>
       <c r="N225" t="n">
-        <v>3305.65502820041</v>
+        <v>3302.70486753267</v>
       </c>
       <c r="O225" t="n">
-        <v>4706.67259288094</v>
+        <v>4708.1405975032</v>
       </c>
       <c r="P225" t="n">
-        <v>2485.75498407887</v>
+        <v>2490.88701900415</v>
       </c>
       <c r="Q225" t="n">
-        <v>514.561789254755</v>
+        <v>520.233656609787</v>
       </c>
       <c r="R225" t="n">
-        <v>149.344899197861</v>
+        <v>109.690951603052</v>
       </c>
       <c r="S225" t="n">
-        <v>181.159081661288</v>
+        <v>169.793975738937</v>
       </c>
       <c r="T225" t="n">
-        <v>2132.180844211</v>
+        <v>2131.089667586</v>
       </c>
       <c r="U225" t="n">
         <v>220.02821939782</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="AF225" t="n">
-        <v>1716.89000384285</v>
+        <v>1714.181459313</v>
       </c>
       <c r="AG225" t="n">
-        <v>330.193673423702</v>
+        <v>328.803750973952</v>
       </c>
     </row>
     <row r="226">
@@ -23979,10 +23979,10 @@
         <v>0.00533462036210497</v>
       </c>
       <c r="J226" t="n">
-        <v>30686.194808521</v>
+        <v>30710.9545328611</v>
       </c>
       <c r="K226" t="n">
-        <v>1976.60742450692</v>
+        <v>1978.41031785474</v>
       </c>
       <c r="L226" t="n">
         <v>425.873223494629</v>
@@ -23991,25 +23991,25 @@
         <v>75.2292857142857</v>
       </c>
       <c r="N226" t="n">
-        <v>3333.78857672717</v>
+        <v>3330.81330802862</v>
       </c>
       <c r="O226" t="n">
-        <v>4789.764743375</v>
+        <v>4791.45103585791</v>
       </c>
       <c r="P226" t="n">
-        <v>2506.61206147365</v>
+        <v>2511.80025771885</v>
       </c>
       <c r="Q226" t="n">
-        <v>513.262449990416</v>
+        <v>518.919995100559</v>
       </c>
       <c r="R226" t="n">
-        <v>151.584820456769</v>
+        <v>134.692196391126</v>
       </c>
       <c r="S226" t="n">
-        <v>180.364238108601</v>
+        <v>169.048997095507</v>
       </c>
       <c r="T226" t="n">
-        <v>2176.11106217219</v>
+        <v>2175.02891185981</v>
       </c>
       <c r="U226" t="n">
         <v>223.644717226652</v>
@@ -24045,10 +24045,10 @@
         <v>0</v>
       </c>
       <c r="AF226" t="n">
-        <v>1738.00706068685</v>
+        <v>1735.28074613955</v>
       </c>
       <c r="AG226" t="n">
-        <v>332.359983510982</v>
+        <v>330.96094216143</v>
       </c>
     </row>
     <row r="227">
@@ -24080,10 +24080,10 @@
         <v>0.00530631319568364</v>
       </c>
       <c r="J227" t="n">
-        <v>30955.9187647644</v>
+        <v>30980.8961208716</v>
       </c>
       <c r="K227" t="n">
-        <v>1991.53866628079</v>
+        <v>1993.3551786387</v>
       </c>
       <c r="L227" t="n">
         <v>425.9813524</v>
@@ -24092,25 +24092,25 @@
         <v>75.2292857142857</v>
       </c>
       <c r="N227" t="n">
-        <v>3361.53574377562</v>
+        <v>3358.53571187578</v>
       </c>
       <c r="O227" t="n">
-        <v>4822.70071085096</v>
+        <v>4824.35356561188</v>
       </c>
       <c r="P227" t="n">
-        <v>2528.31878066128</v>
+        <v>2533.56098513873</v>
       </c>
       <c r="Q227" t="n">
-        <v>511.966391736364</v>
+        <v>517.609650767256</v>
       </c>
       <c r="R227" t="n">
-        <v>152.319073482388</v>
+        <v>155.154681378039</v>
       </c>
       <c r="S227" t="n">
-        <v>180.233741405921</v>
+        <v>168.926687168973</v>
       </c>
       <c r="T227" t="n">
-        <v>2182.31639550552</v>
+        <v>2181.23424519314</v>
       </c>
       <c r="U227" t="n">
         <v>227.320657687805</v>
@@ -24146,10 +24146,10 @@
         <v>0</v>
       </c>
       <c r="AF227" t="n">
-        <v>1759.41774352578</v>
+        <v>1756.67354237683</v>
       </c>
       <c r="AG227" t="n">
-        <v>334.540506164317</v>
+        <v>333.132286088363</v>
       </c>
     </row>
     <row r="228">
@@ -24181,7 +24181,7 @@
         <v>0.00527407883226472</v>
       </c>
       <c r="J228" t="n">
-        <v>31236.7313725422</v>
+        <v>31261.9353075004</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -24282,7 +24282,7 @@
         <v>0.00523379729860385</v>
       </c>
       <c r="J229" t="n">
-        <v>31520.5409131671</v>
+        <v>31545.973845107</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -24383,7 +24383,7 @@
         <v>0.00522327514825061</v>
       </c>
       <c r="J230" t="n">
-        <v>31800.2546455676</v>
+        <v>31825.9132697106</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -24484,7 +24484,7 @@
         <v>0.00515037171705424</v>
       </c>
       <c r="J231" t="n">
-        <v>32077.3710361673</v>
+        <v>32103.2532567999</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>0.00510328671531268</v>
       </c>
       <c r="J232" t="n">
-        <v>32357.7840528988</v>
+        <v>32383.8925299649</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0.00506502170135303</v>
       </c>
       <c r="J233" t="n">
-        <v>32641.8932868085</v>
+        <v>32668.2310026694</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -24787,7 +24787,7 @@
         <v>0.00501081648038282</v>
       </c>
       <c r="J234" t="n">
-        <v>32930.2981244657</v>
+        <v>32956.8685451088</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0.00502660062373872</v>
       </c>
       <c r="J235" t="n">
-        <v>33225.5959076714</v>
+        <v>33252.4045947974</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -24989,7 +24989,7 @@
         <v>0.00501362928348925</v>
       </c>
       <c r="J236" t="n">
-        <v>33527.2871476176</v>
+        <v>33554.3392599054</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0.00500072649779626</v>
       </c>
       <c r="J237" t="n">
-        <v>33835.2719465429</v>
+        <v>33862.5725620671</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -25191,7 +25191,7 @@
         <v>0.00497584366453419</v>
       </c>
       <c r="J238" t="n">
-        <v>34148.651224593</v>
+        <v>34176.204695989</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0.00496719175837779</v>
       </c>
       <c r="J239" t="n">
-        <v>34467.5248795296</v>
+        <v>34495.335640037</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0.00492673519295383</v>
       </c>
       <c r="J240" t="n">
-        <v>34791.0937292601</v>
+        <v>34819.1655672837</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -25494,7 +25494,7 @@
         <v>0.00488279704341488</v>
       </c>
       <c r="J241" t="n">
-        <v>35118.4586939302</v>
+        <v>35146.7946724357</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -25595,7 +25595,7 @@
         <v>0.00482756991313527</v>
       </c>
       <c r="J242" t="n">
-        <v>35448.8205914476</v>
+        <v>35477.4231285657</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0.0047847827449996</v>
       </c>
       <c r="J243" t="n">
-        <v>35782.6789106199</v>
+        <v>35811.5508275032</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0.00475029738109622</v>
       </c>
       <c r="J244" t="n">
-        <v>36120.1335492088</v>
+        <v>36149.2777476141</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -25898,7 +25898,7 @@
         <v>0.00472007545910125</v>
       </c>
       <c r="J245" t="n">
-        <v>36461.0846094527</v>
+        <v>36490.5039105326</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -25999,7 +25999,7 @@
         <v>0.00468244739007639</v>
       </c>
       <c r="J246" t="n">
-        <v>36805.1325003053</v>
+        <v>36834.829402795</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -26100,7 +26100,7 @@
         <v>0.00465677886260774</v>
       </c>
       <c r="J247" t="n">
-        <v>37152.3771195282</v>
+        <v>37182.354202767</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -26201,7 +26201,7 @@
         <v>0.00462371106398929</v>
       </c>
       <c r="J248" t="n">
-        <v>37503.0182626446</v>
+        <v>37533.2782671807</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -26302,7 +26302,7 @@
         <v>0.00459481083552404</v>
       </c>
       <c r="J249" t="n">
-        <v>37856.0569520386</v>
+        <v>37886.6018123768</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -26403,7 +26403,7 @@
         <v>0.00456241751240172</v>
       </c>
       <c r="J250" t="n">
-        <v>38211.4931877104</v>
+        <v>38242.3248383551</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -26504,7 +26504,7 @@
         <v>0.00454169639722291</v>
       </c>
       <c r="J251" t="n">
-        <v>38569.9263562294</v>
+        <v>38601.0472153113</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -26605,7 +26605,7 @@
         <v>0.00450988792928486</v>
       </c>
       <c r="J252" t="n">
-        <v>38931.5562531186</v>
+        <v>38962.9688999773</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -26706,7 +26706,7 @@
         <v>0.00448215742174929</v>
       </c>
       <c r="J253" t="n">
-        <v>39295.9832873318</v>
+        <v>39327.6899788893</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -26807,7 +26807,7 @@
         <v>0.00445843265792623</v>
       </c>
       <c r="J254" t="n">
-        <v>39663.1075611075</v>
+        <v>39695.1104736814</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -26908,7 +26908,7 @@
         <v>0.00443122698635778</v>
       </c>
       <c r="J255" t="n">
-        <v>40033.1288699688</v>
+        <v>40065.4303410855</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         <v>0.00441167784045593</v>
       </c>
       <c r="J256" t="n">
-        <v>40406.2470094387</v>
+        <v>40438.8495378334</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -27110,7 +27110,7 @@
         <v>0.00439230042599803</v>
       </c>
       <c r="J257" t="n">
-        <v>40782.561877279</v>
+        <v>40815.4680422911</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -27211,7 +27211,7 @@
         <v>0.00437675198161469</v>
       </c>
       <c r="J258" t="n">
-        <v>41162.3731667742</v>
+        <v>41195.5857895563</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -27312,7 +27312,7 @@
         <v>0.00435767949923127</v>
       </c>
       <c r="J259" t="n">
-        <v>41545.4810824014</v>
+        <v>41579.0028228972</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -27413,7 +27413,7 @@
         <v>0.00433514478295249</v>
       </c>
       <c r="J260" t="n">
-        <v>41932.0854196835</v>
+        <v>41965.9190990456</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
